--- a/data/trans_orig/P13A_1_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>15108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9205</v>
+        <v>8911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25686</v>
+        <v>25517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03044417994259217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0185498724567402</v>
+        <v>0.01795623201710994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05176033255489019</v>
+        <v>0.05141910571723916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -762,19 +762,19 @@
         <v>46876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36646</v>
+        <v>36358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61809</v>
+        <v>63518</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07570775825486047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05918605330030136</v>
+        <v>0.05872119674994603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09982611731198861</v>
+        <v>0.1025854425194232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -783,19 +783,19 @@
         <v>61984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49244</v>
+        <v>48926</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79485</v>
+        <v>79142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05557002882215941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04414875654138992</v>
+        <v>0.04386324391004956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0712596869146906</v>
+        <v>0.07095266429989151</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>481142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470564</v>
+        <v>470733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487045</v>
+        <v>487339</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9695558200574078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9482396674451097</v>
+        <v>0.9485808942827608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9814501275432598</v>
+        <v>0.9820437679828901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>789</v>
@@ -833,19 +833,19 @@
         <v>572295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>557362</v>
+        <v>555653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>582525</v>
+        <v>582813</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9242922417451395</v>
+        <v>0.9242922417451397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9001738826880112</v>
+        <v>0.8974145574805766</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9408139466996984</v>
+        <v>0.9412788032500536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1226</v>
@@ -854,19 +854,19 @@
         <v>1053437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1035936</v>
+        <v>1036279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1066177</v>
+        <v>1066495</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9444299711778406</v>
+        <v>0.9444299711778408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9287403130853104</v>
+        <v>0.9290473357001086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9558512434586102</v>
+        <v>0.9561367560899506</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>9114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4693</v>
+        <v>4710</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16738</v>
+        <v>16719</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.009523391005118018</v>
+        <v>0.009523391005118016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004904309202304162</v>
+        <v>0.004921942244778832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01749066423888377</v>
+        <v>0.01747091527289056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -979,19 +979,19 @@
         <v>44323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34096</v>
+        <v>33609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56091</v>
+        <v>55110</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03985596190324892</v>
+        <v>0.0398559619032489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03065980026486821</v>
+        <v>0.03022181690004049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0504376715003443</v>
+        <v>0.04955530321696006</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1000,19 +1000,19 @@
         <v>53437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42117</v>
+        <v>42983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65898</v>
+        <v>67350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02582671289273145</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02035565882317104</v>
+        <v>0.02077415922845179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03184921878524283</v>
+        <v>0.03255078156088193</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>947856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>940232</v>
+        <v>940251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952277</v>
+        <v>952260</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9904766089948821</v>
+        <v>0.9904766089948819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9825093357611162</v>
+        <v>0.9825290847271095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950956907976959</v>
+        <v>0.9950780577552213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1533</v>
@@ -1050,19 +1050,19 @@
         <v>1067768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1056000</v>
+        <v>1056981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1077995</v>
+        <v>1078482</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.960144038096751</v>
+        <v>0.9601440380967509</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9495623284996554</v>
+        <v>0.9504446967830397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9693401997351317</v>
+        <v>0.9697781830999594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2428</v>
@@ -1071,19 +1071,19 @@
         <v>2015624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2003163</v>
+        <v>2001711</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026944</v>
+        <v>2026078</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9741732871072685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.968150781214757</v>
+        <v>0.9674492184391181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.979644341176829</v>
+        <v>0.9792258407715483</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2141</v>
+        <v>1821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12623</v>
+        <v>12051</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.00520687999553626</v>
+        <v>0.005206879995536261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002048499463902086</v>
+        <v>0.001742211260888882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01207598866191409</v>
+        <v>0.01152832382190972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1196,19 +1196,19 @@
         <v>33557</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24068</v>
+        <v>24211</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48038</v>
+        <v>46144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03208186170548117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02300983894896259</v>
+        <v>0.02314657242668164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.045925537384728</v>
+        <v>0.04411501289831163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1217,19 +1217,19 @@
         <v>39000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29070</v>
+        <v>28556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53659</v>
+        <v>53412</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01864875226124169</v>
+        <v>0.0186487522612417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01390058056247627</v>
+        <v>0.01365458599659567</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02565818819192961</v>
+        <v>0.0255402139877226</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1039864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1032684</v>
+        <v>1033256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1043166</v>
+        <v>1043486</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9947931200044637</v>
+        <v>0.9947931200044638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9879240113380859</v>
+        <v>0.9884716761780903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997951500536098</v>
+        <v>0.9982577887391111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1470</v>
@@ -1267,19 +1267,19 @@
         <v>1012432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>997951</v>
+        <v>999845</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1021921</v>
+        <v>1021778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9679181382945189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9540744626152721</v>
+        <v>0.9558849871016883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9769901610510373</v>
+        <v>0.9768534275733183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2492</v>
@@ -1288,19 +1288,19 @@
         <v>2052297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2037638</v>
+        <v>2037885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2062227</v>
+        <v>2062741</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9813512477387583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9743418118080703</v>
+        <v>0.9744597860122775</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860994194375235</v>
+        <v>0.9863454140034044</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>9146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4441</v>
+        <v>4694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17328</v>
+        <v>17692</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009408335621232545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004568403761589141</v>
+        <v>0.004828849592127011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01782516310338031</v>
+        <v>0.01819974270015023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1413,19 +1413,19 @@
         <v>29266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20237</v>
+        <v>20796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40533</v>
+        <v>41497</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03243372854771653</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02242761963166221</v>
+        <v>0.02304676666208426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04492093519974052</v>
+        <v>0.04598875561314798</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1434,19 +1434,19 @@
         <v>38412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28873</v>
+        <v>28238</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52445</v>
+        <v>51632</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02049241357769825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01540355471252374</v>
+        <v>0.01506472394511779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02797917634597137</v>
+        <v>0.02754519875886826</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>962969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954787</v>
+        <v>954423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967674</v>
+        <v>967421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9905916643787674</v>
+        <v>0.9905916643787673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9821748368966196</v>
+        <v>0.9818002572998495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954315962384108</v>
+        <v>0.995171150407873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1275</v>
@@ -1484,19 +1484,19 @@
         <v>873063</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>861796</v>
+        <v>860832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>882092</v>
+        <v>881533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9675662714522836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9550790648002597</v>
+        <v>0.9540112443868519</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9775723803683378</v>
+        <v>0.9769532333379157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2209</v>
@@ -1505,19 +1505,19 @@
         <v>1836032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1821999</v>
+        <v>1822812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845571</v>
+        <v>1846206</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9795075864223017</v>
+        <v>0.9795075864223018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9720208236540286</v>
+        <v>0.9724548012411317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9845964452874758</v>
+        <v>0.9849352760548822</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>38810</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28083</v>
+        <v>28624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53736</v>
+        <v>52621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01118245202434685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008091466934902168</v>
+        <v>0.008247478554268014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01548297051849344</v>
+        <v>0.01516180417997211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -1630,19 +1630,19 @@
         <v>154023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132977</v>
+        <v>131340</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176836</v>
+        <v>177490</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04185876231882606</v>
+        <v>0.04185876231882608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03613921135980577</v>
+        <v>0.03569434227613789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04805867498660468</v>
+        <v>0.04823642194708698</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -1651,19 +1651,19 @@
         <v>192833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169661</v>
+        <v>166855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>220984</v>
+        <v>221173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02696880540881563</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02372803034404637</v>
+        <v>0.02333560819383118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03090588870394229</v>
+        <v>0.03093237709494018</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3431833</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3416907</v>
+        <v>3418022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3442560</v>
+        <v>3442019</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9888175479756532</v>
+        <v>0.9888175479756531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9845170294815064</v>
+        <v>0.984838195820028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9919085330650977</v>
+        <v>0.9917525214457321</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5067</v>
@@ -1701,19 +1701,19 @@
         <v>3525557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3502744</v>
+        <v>3502090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3546603</v>
+        <v>3548240</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9581412376811739</v>
+        <v>0.9581412376811741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9519413250133953</v>
+        <v>0.9517635780529133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9638607886401941</v>
+        <v>0.9643056577238621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8355</v>
@@ -1722,19 +1722,19 @@
         <v>6957390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6929239</v>
+        <v>6929050</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6980562</v>
+        <v>6983368</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9730311945911841</v>
+        <v>0.9730311945911845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9690941112960579</v>
+        <v>0.9690676229050602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9762719696559538</v>
+        <v>0.9766643918061689</v>
       </c>
     </row>
     <row r="18">
